--- a/ITC322A3/Book1.xlsx
+++ b/ITC322A3/Book1.xlsx
@@ -561,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,6 +1024,213 @@
       </c>
       <c r="M24">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>3</v>
+      </c>
+      <c r="G32" s="1">
+        <v>4</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <v>8</v>
+      </c>
+      <c r="L32" s="1">
+        <v>9</v>
+      </c>
+      <c r="M32" s="1">
+        <v>10</v>
+      </c>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4">
+        <f>D35+1</f>
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <f>F35+1</f>
+        <v>2</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="6">
+        <f>H35+1</f>
+        <v>3</v>
+      </c>
+      <c r="L35" s="11">
+        <f>J35+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="13">
+        <f>D35+5</f>
+        <v>5</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="14">
+        <f>F35+5</f>
+        <v>6</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="18">
+        <f>H35+5</f>
+        <v>7</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="5">
+        <f>J35+5</f>
+        <v>8</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="16">
+        <f>L35+5</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="11">
+        <f>D37+5</f>
+        <v>10</v>
+      </c>
+      <c r="F39" s="15">
+        <f>F37+5</f>
+        <v>11</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="16">
+        <f>H37+5</f>
+        <v>12</v>
+      </c>
+      <c r="J39" s="7">
+        <f>J37+5</f>
+        <v>13</v>
+      </c>
+      <c r="L39" s="8">
+        <f>L37+5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="11">
+        <f>D39+5</f>
+        <v>15</v>
+      </c>
+      <c r="F41" s="10">
+        <f>F39+5</f>
+        <v>16</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="17">
+        <f>H39+5</f>
+        <v>17</v>
+      </c>
+      <c r="J41" s="9">
+        <f>J39+5</f>
+        <v>18</v>
+      </c>
+      <c r="L41" s="9">
+        <f>L39+5</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
